--- a/biology/Zoologie/Boreosphenida/Boreosphenida.xlsx
+++ b/biology/Zoologie/Boreosphenida/Boreosphenida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boreosphenida (boréosphénides en français) sont une infra-classe qui regroupe les métathériens et les euthériens, c'est-à-dire tous les thériens actuellement existants. Ce clade est désormais obsolète car il s'agit d'un synonyme d'un autre taxon, les Tribosphenida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infra-classe des Boreosphenida a été créée en 2001 par les paléontologues et zoologistes Zhe-Xi Luo (d), Richard Cifelli &amp; Zofia Kielan-Jaworowska[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infra-classe des Boreosphenida a été créée en 2001 par les paléontologues et zoologistes Zhe-Xi Luo (d), Richard Cifelli &amp; Zofia Kielan-Jaworowska.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme Boreosphenida dérive du latin boreas, « vent du nord » et du grec ancien σφήν, sphến, « coin », et fait référence à leur répartition située dans l'hémisphère nord[2] et ce en opposition avec les Australosphenida dont la répartition se situait dans l'hémisphère sud.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Boreosphenida dérive du latin boreas, « vent du nord » et du grec ancien σφήν, sphến, « coin », et fait référence à leur répartition située dans l'hémisphère nord et ce en opposition avec les Australosphenida dont la répartition se situait dans l'hémisphère sud.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Zhe-Xi Luo, Richard L. Cifelli et Zofia Kielan-Jaworowska, « Dual origin of tribosphenic mammals », Nature, NPG et Springer Science+Business Media, vol. 409, no 6816,‎ 4 janvier 2001, p. 53-57 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 11343108, DOI 10.1038/35051023, lire en ligne)</t>
         </is>
